--- a/target/test-classes/ResgisterInformation_testData.xlsx
+++ b/target/test-classes/ResgisterInformation_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ContactInformation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" activeCellId="3" sqref="A3:D3 A4:D4 A5:D5 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,13 +498,43 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -565,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ResgisterInformation_testData.xlsx
+++ b/target/test-classes/ResgisterInformation_testData.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="3" sqref="A3:D3 A4:D4 A5:D5 C5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/ResgisterInformation_testData.xlsx
+++ b/target/test-classes/ResgisterInformation_testData.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/ResgisterInformation_testData.xlsx
+++ b/target/test-classes/ResgisterInformation_testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -61,12 +61,19 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>12344555</t>
+  </si>
+  <si>
+    <t>pawan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,10 +457,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,10 +479,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -548,11 +555,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,8 +608,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
